--- a/bnnp_docs/01 需求/BNNP&TTF_需求列表.xlsx
+++ b/bnnp_docs/01 需求/BNNP&TTF_需求列表.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="变更历史" sheetId="1" r:id="rId1"/>
     <sheet name="需求列表" sheetId="2" r:id="rId2"/>
+    <sheet name="线下门店现金转账" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>新建</t>
   </si>
@@ -62,6 +63,23 @@
 但调用链路中一定要有。
 在联调阶段，需要验证 对某个用户验证短信时，可以在风控系统中调整输出。
 </t>
+  </si>
+  <si>
+    <t>线下门店现金转账</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">详见 Sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 线下门店现金转账</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -70,11 +88,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,12 +104,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -99,6 +132,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -106,36 +170,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,12 +210,27 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -165,65 +239,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,30 +269,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -272,7 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,139 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,50 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,17 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +527,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,142 +580,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1013,7 +1049,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4">
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>43034</v>
       </c>
       <c r="D2" t="s">
@@ -1021,7 +1057,7 @@
       </c>
     </row>
     <row r="3" spans="3:4">
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>43034</v>
       </c>
       <c r="D3" t="s">
@@ -1037,13 +1073,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="C2:G4"/>
+  <dimension ref="C2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="41.625" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
@@ -1077,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="3:7">
+    <row r="4" ht="216" spans="3:7">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,10 +1125,34 @@
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/bnnp_docs/01 需求/BNNP&TTF_需求列表.xlsx
+++ b/bnnp_docs/01 需求/BNNP&TTF_需求列表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leungma\Documents\git_repos\some_documents\bnnp_docs\01 需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiaqi\Desktop\some_documents\bnnp_docs\01 需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更历史" sheetId="1" r:id="rId1"/>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +163,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -181,12 +194,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,9 +218,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -579,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,24 +615,25 @@
     <col min="7" max="7" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
+    <row r="2" spans="2:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -623,7 +644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="216" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="216" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -640,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="148.5" x14ac:dyDescent="0.15">
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -653,7 +674,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="3:7" ht="243" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="243" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
@@ -666,13 +687,13 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -691,7 +712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
